--- a/AI in Capacity/bulk_input.xlsx
+++ b/AI in Capacity/bulk_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan.Tallozu\Documents\projects\AI in Capability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3236CC-5826-41D8-9321-57A2CDCDFEB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCC5C88-DC33-449A-93BC-11CD3CD2AB8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2ED67C5-8472-4C81-8370-FF227A2C50D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Python</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Power BI</t>
   </si>
   <si>
-    <t>Agile</t>
-  </si>
-  <si>
     <t>Stake Holder Management</t>
   </si>
   <si>
-    <t>SDLC</t>
-  </si>
-  <si>
     <t>Budget Preparation</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Problem Solving</t>
   </si>
   <si>
-    <t>RPA</t>
-  </si>
-  <si>
     <t>Years of experience</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Financial Risk Analyst</t>
   </si>
   <si>
     <t>Dashboarding</t>
@@ -339,6 +327,12 @@
   </si>
   <si>
     <t>Years of Experience Weightage</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>DL</t>
   </si>
 </sst>
 </file>
@@ -835,7 +829,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,142 +848,142 @@
   <sheetData>
     <row r="1" spans="1:27" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="R1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="X1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T2" s="13">
         <v>8</v>
@@ -1018,55 +1012,55 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T3" s="9">
         <v>1</v>
@@ -1095,59 +1089,59 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7">
         <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="R4" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T4" s="12">
         <v>8</v>
@@ -1176,57 +1170,57 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="P5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T5" s="9">
         <v>5</v>
@@ -1255,57 +1249,57 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="R6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T6" s="13">
         <v>5</v>
@@ -1334,57 +1328,57 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T7" s="9">
         <v>8</v>
@@ -1413,35 +1407,35 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>5</v>
@@ -1450,18 +1444,18 @@
         <v>2</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T8" s="12">
         <v>1</v>
